--- a/Labb2/ak9.xlsx
+++ b/Labb2/ak9.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Labb2/ak9.xlsx
+++ b/Labb2/ak9.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Engelska" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Matematik" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Svenska" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Svenska som andraspråk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Rapportbeskrivning och def." sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +440,963 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Riket</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Typ av huvudman</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Totalt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Flickor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pojkar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt  </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor  </t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Samtliga</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>106941</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51864</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55077</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kommunal</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84310</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40675</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43635</v>
+      </c>
+      <c r="F3" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enskild</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22582</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11165</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11417</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Skolverket</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Typ av huvudman</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Totalt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Flickor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pojkar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt  </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor  </t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Samtliga</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>106766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51548</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55218</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kommunal</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84163</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40386</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43777</v>
+      </c>
+      <c r="F3" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enskild</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22553</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11137</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11416</v>
+      </c>
+      <c r="F4" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Skolverket</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>~100</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>~100</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>~100</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Typ av huvudman</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Totalt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Flickor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pojkar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt  </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor  </t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Samtliga</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>93225</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="E2" t="n">
+        <v>47425</v>
+      </c>
+      <c r="F2" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kommunal</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72771</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35484</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37287</v>
+      </c>
+      <c r="F3" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enskild</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20414</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10297</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10117</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Skolverket</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Typ av huvudman</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Totalt</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Flickor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pojkar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt </t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor </t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar </t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Totalt  </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flickor  </t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pojkar  </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Samtliga</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14092</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6447</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7645</v>
+      </c>
+      <c r="F2" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kommunal</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11963</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5495</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6468</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enskild</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2122</v>
+      </c>
+      <c r="D4" t="n">
+        <v>949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Riket</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Skolverket</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Observera att om resultatuppgiften baseras på färre än 10 elever, dubbelprickas den. Då visas två prickar (..) istället för utfall.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 1</t>
         </is>
       </c>
@@ -454,369 +1410,152 @@
           <t>Unnamed: 3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Om antalet flickor eller pojkar är färre än 10 dubbelprickas båda antalsuppgifterna. </t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Grundskolan - Resultat nationella prov årskurs 9, provbetyg per kön - Engelska, Matematik och Svenska/svenska som andraspråk</t>
+          <t xml:space="preserve">Observera att om antalet elever med provbetyg F är färre än 5, så visas andelen med A-E som ~100. </t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Engelska</t>
+          <t>Om en andelsuppgift för antingen pojkar eller flickor redovisas med ~100 kommer andelsuppgiften för det andra könet att sekretessprickas (..).</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Valt läsår: 2022/23</t>
+          <t>Om data saknas visas en prick (.) istället för utfall.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Antal elever med provbetyg A-F</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Antal elever som har avslutat årskurs 9 med eller utan slutbetyg från det mål och kunskapsrelaterade betygssystemet samt deltagit i ämnesprovet/delprovet och fått prov-/delprovsbetyg A-F.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Antal elever med provbetyg A-F</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Andel (%) med provbetyg A-E</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Genomsnittlig betygspoäng</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Riket</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Typ av huvudman</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Totalt</t>
-        </is>
-      </c>
+          <t>Andel (%) med provbetyg A-E</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Flickor</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pojkar</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Totalt </t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flickor </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pojkar </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Totalt  </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flickor  </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pojkar  </t>
+          <t>Andel elever som fått betyg A-E av dem som deltagit i delprovet/provet, dvs fått betyg A-F. Observera att om antalet elever med provbetyg F är 1-4, så visas andelen med A-E som ~100.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Riket</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Samtliga</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>106941</v>
-      </c>
-      <c r="D10" t="n">
-        <v>51864</v>
-      </c>
-      <c r="E10" t="n">
-        <v>55077</v>
-      </c>
-      <c r="F10" t="n">
-        <v>97</v>
-      </c>
-      <c r="G10" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>97</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Riket</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Kommunal</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>84310</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40675</v>
-      </c>
-      <c r="E11" t="n">
-        <v>43635</v>
-      </c>
-      <c r="F11" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15.4</v>
+          <t>Genomsnittlig betygspoäng</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Betygspoängen utgörs av ett genomsnitt av betygsvärdena i prov-/delprovsbetygen (F=0, E=10, D=12.5, C=15, B=17.5 och A=20). Det möjliga värdet är 0-20 poäng. Den genomsnittliga betygspoängen  beräknas för de elever som fått betyg A-F i respektive ämne.</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Riket</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Enskild</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>22582</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11165</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11417</v>
-      </c>
-      <c r="F12" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17</v>
-      </c>
-      <c r="K12" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Riket</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Skolverket</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>49</v>
-      </c>
-      <c r="D13" t="n">
-        <v>24</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>I svenska/svenska som andraspråk och engelska bedöms och betygsätts varje delprov separat.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resultaten på de olika delarna vägs sedan samman till ett sammanvägt provbetyg. För att få ett sammanvägt provbetyg ska eleven ha deltagit i samtliga delprov. </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I matematik ges inga delprovsbetyg. För att få ett sammanvägt provbetyg i matematik ska eleven dock ha deltagit i samtliga delprov.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
